--- a/Daisy-xls/ResearchPages/research-lung-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-lung-cancer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -30,13 +30,7 @@
     <t>Medicare to Cover Annual Lung Cancer Screening for Some Beneficiaries[#6887]</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/news-events/nci-update/2015/medicare-lung-cancer-screening</t>
-  </si>
-  <si>
     <t>Dietary Intervention for Patients Receiving Chemoradiotherapy for Lung Cancer</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/featured/trials/ketolung</t>
   </si>
   <si>
     <t>Chemotherapy Combination Improves Survival in Elderly Lung Cancer Patients</t>
@@ -144,34 +138,43 @@
     <t>/types/lung/research/combo-chemo-helps-elderly</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2011/PLCO1211</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2010/combochemo-NSCLC0610</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/newscenter/newsfromnci/2011/NLSTprimaryNEJM</t>
-  </si>
-  <si>
     <t>NIH-funded study shows 20 percent reduction in lung cancer mortality with low-dose CT compared to chest X-ray</t>
   </si>
   <si>
     <t>Expanding the Playing Field: Immune-Based Therapy Shows Potential for Lung, Other Cancers</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2012/PD-1-immunotherapy0612</t>
-  </si>
-  <si>
     <t>/types/lung/research/PD-1-immunotherapy</t>
   </si>
   <si>
     <t>A Snapshot of Lung Cancer</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/researchandfunding/snapshots/lung</t>
-  </si>
-  <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/researchandfunding/snapshots/lung</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/news-events/nci-update/2015/medicare-lung-cancer-screening</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2013/crizotinib-NSCLC0613</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/ketolung</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2012/PD-1-immunotherapy0612</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/PLCO1211</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2010/combochemo-NSCLC0610</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/newscenter/newsfromnci/2011/NLSTprimaryNEJM</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,12 +260,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,6 +347,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,7 +657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -652,7 +673,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -664,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -675,12 +696,14 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="23">
+        <v>488040</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10">
@@ -692,12 +715,14 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14">
+        <v>904556</v>
+      </c>
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="16">
@@ -708,13 +733,17 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="23">
+        <v>586922</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="12" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="16">
         <v>41977</v>
@@ -724,12 +753,14 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="23">
+        <v>814538</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="17">
@@ -740,12 +771,14 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="23">
+        <v>801686</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="17">
@@ -756,12 +789,14 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="23">
+        <v>793147</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="17">
@@ -772,12 +807,14 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="23">
+        <v>789793</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="17">
@@ -788,15 +825,17 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="23">
+        <v>461896</v>
+      </c>
       <c r="C9" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="16">
         <v>41226</v>
@@ -806,12 +845,14 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="23">
+        <v>460185</v>
+      </c>
       <c r="C10" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="17">
@@ -822,12 +863,14 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="23">
+        <v>441495</v>
+      </c>
       <c r="C11" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="17">
@@ -838,12 +881,14 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="23">
+        <v>419282</v>
+      </c>
       <c r="C12" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="17">
@@ -854,15 +899,17 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="23">
+        <v>318053</v>
+      </c>
       <c r="C13" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" s="16">
         <v>41075</v>
@@ -872,12 +919,14 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="23">
+        <v>226145</v>
+      </c>
       <c r="C14" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="17">
@@ -888,12 +937,14 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="23">
+        <v>217874</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="17">
@@ -904,15 +955,17 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="23">
+        <v>139029</v>
+      </c>
       <c r="C16" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="16">
         <v>40879</v>
@@ -922,15 +975,17 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="23">
+        <v>15036</v>
+      </c>
       <c r="C17" s="20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="16">
         <v>40792</v>
@@ -940,12 +995,14 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="23">
+        <v>87466</v>
+      </c>
       <c r="C18" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="16">
@@ -957,26 +1014,25 @@
     <sortCondition descending="1" ref="F1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4" display="http://www.cancer.gov/clinicaltrials/results/summary/2013/crizotinib-NSCLC0613"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D14" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7"/>
-    <hyperlink ref="D6" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="D8" r:id="rId11"/>
-    <hyperlink ref="D10" r:id="rId12"/>
-    <hyperlink ref="D11" r:id="rId13"/>
-    <hyperlink ref="D18" r:id="rId14"/>
-    <hyperlink ref="D17" r:id="rId15"/>
-    <hyperlink ref="C13" r:id="rId16" display="http://www.cancer.gov/clinicaltrials/results/summary/2012/PD-1-immunotherapy0612"/>
-    <hyperlink ref="D13" r:id="rId17"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.cancer.gov/news-events/nci-update/2015/medicare-lung-cancer-screening"/>
+    <hyperlink ref="D9" r:id="rId2" display="http://www.cancer.gov/clinicaltrials/featured/trials/ketolung"/>
+    <hyperlink ref="D16" r:id="rId3" display="http://www.cancer.gov/clinicaltrials/results/summary/2011/PLCO1211"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="D15" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D7" r:id="rId8"/>
+    <hyperlink ref="D5" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId10"/>
+    <hyperlink ref="D10" r:id="rId11"/>
+    <hyperlink ref="D11" r:id="rId12"/>
+    <hyperlink ref="D18" r:id="rId13" display="http://www.cancer.gov/newscenter/newsfromnci/2011/NLSTprimaryNEJM"/>
+    <hyperlink ref="D17" r:id="rId14" display="http://www.cancer.gov/clinicaltrials/results/summary/2010/combochemo-NSCLC0610"/>
+    <hyperlink ref="C13" r:id="rId15" display="http://www.cancer.gov/clinicaltrials/results/summary/2012/PD-1-immunotherapy0612"/>
+    <hyperlink ref="D13" r:id="rId16" display="http://www.cancer.gov/clinicaltrials/results/summary/2012/PD-1-immunotherapy0612"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
 </worksheet>
 </file>
 
